--- a/test_results/21_25_003.xlsx
+++ b/test_results/21_25_003.xlsx
@@ -222,31 +222,31 @@
     <t>Sex</t>
   </si>
   <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>65/70%</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Reverberation</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>No problemi VR.</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>65/70%</t>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>Reverberation</t>
-  </si>
-  <si>
-    <t>Intermedio</t>
-  </si>
-  <si>
-    <t>No problemi VR.</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>VR</t>
-  </si>
-  <si>
-    <t>Nessuno</t>
   </si>
   <si>
     <t>Impairment</t>
